--- a/data/data_car.xlsx
+++ b/data/data_car.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Car_CAR1_Simulation_25" r:id="rId3" sheetId="1"/>
+    <sheet name="Car_CAR1_Simulation_1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="12">
   <si>
     <t>Timestamp</t>
   </si>
@@ -47,7 +47,7 @@
     <t>CAR1</t>
   </si>
   <si>
-    <t>ID39</t>
+    <t>ID80</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,7 +132,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.697916322762E12</v>
+        <v>1.697941484323E12</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>10</v>
@@ -144,7 +144,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>272.1822356526144</v>
+        <v>172.80566527581593</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>837.2222222222222</v>
@@ -156,15 +156,15 @@
         <v>2624.722222222222</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>3004.9931663946572</v>
+        <v>2709.0977924740246</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>1330.093657697385</v>
+        <v>1063.1534664679323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>1.697916322776E12</v>
+        <v>1.697941484331E12</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>10</v>
@@ -176,7 +176,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>272.1822356526144</v>
+        <v>172.80566527581593</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>837.2222222222222</v>
@@ -188,15 +188,15 @@
         <v>2624.722222222222</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>3004.9931663946572</v>
+        <v>2709.0977924740246</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>1330.093657697385</v>
+        <v>1063.1534664679323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>1.697916323324E12</v>
+        <v>1.697941484835E12</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>10</v>
@@ -208,7 +208,7 @@
         <v>6.95</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>341.6822356526144</v>
+        <v>242.30566527581593</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>1072.0951555555555</v>
@@ -220,15 +220,15 @@
         <v>3361.2195138888887</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>3039.60385203555</v>
+        <v>2755.9042678855258</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>1286.1600889055894</v>
+        <v>1083.9284120120576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>1.697916323493E12</v>
+        <v>1.697941484961E12</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>10</v>
@@ -240,7 +240,7 @@
         <v>6.95</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>341.6822356526144</v>
+        <v>242.30566527581593</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>1072.0951555555555</v>
@@ -252,15 +252,15 @@
         <v>3361.2195138888887</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>3039.60385203555</v>
+        <v>2755.9042678855258</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>1286.1600889055894</v>
+        <v>1083.9284120120576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>1.697916323853E12</v>
+        <v>1.697941485355E12</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>10</v>
@@ -272,7 +272,7 @@
         <v>6.95</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>411.18223565261434</v>
+        <v>311.80566527581595</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>670.5135375</v>
@@ -284,15 +284,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>3043.4984858592866</v>
+        <v>2774.254880416979</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>1234.4291017975713</v>
+        <v>1151.5396025629009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>1.697916324148E12</v>
+        <v>1.697941485591E12</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>10</v>
@@ -304,7 +304,7 @@
         <v>6.95</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>411.18223565261434</v>
+        <v>311.80566527581595</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>670.5135375</v>
@@ -316,15 +316,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>3043.4984858592866</v>
+        <v>2774.254880416979</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>1234.4291017975713</v>
+        <v>1151.5396025629009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>1.697916324366E12</v>
+        <v>1.697941485873E12</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>10</v>
@@ -336,7 +336,7 @@
         <v>6.95</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>480.6822356526144</v>
+        <v>381.30566527581595</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>670.5135375</v>
@@ -348,15 +348,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>3011.4863676725686</v>
+        <v>2804.186044011926</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>1172.7064770744678</v>
+        <v>1214.7582660905596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>1.697916324804E12</v>
+        <v>1.697941486216E12</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>10</v>
@@ -368,7 +368,7 @@
         <v>6.95</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>550.1822356526144</v>
+        <v>450.80566527581595</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>670.5135375</v>
@@ -380,15 +380,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>2979.319252379244</v>
+        <v>2837.584753562217</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>1111.3861721371748</v>
+        <v>1275.881088638254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>1.697916324884E12</v>
+        <v>1.697941486388E12</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>10</v>
@@ -400,7 +400,7 @@
         <v>6.95</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>550.1822356526144</v>
+        <v>450.80566527581595</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>670.5135375</v>
@@ -412,15 +412,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>2979.319252379244</v>
+        <v>2837.584753562217</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>1111.3861721371748</v>
+        <v>1275.881088638254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>1.6979163254E12</v>
+        <v>1.697941486839E12</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>10</v>
@@ -432,7 +432,7 @@
         <v>6.95</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>619.6822356526144</v>
+        <v>520.3056652758158</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>670.5135375</v>
@@ -444,15 +444,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>2949.398532666572</v>
+        <v>2873.9998806117474</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>1048.7083319916765</v>
+        <v>1334.995115024158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>1.697916325478E12</v>
+        <v>1.697941486902E12</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>10</v>
@@ -464,7 +464,7 @@
         <v>6.95</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>619.6822356526144</v>
+        <v>520.3056652758158</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>670.5135375</v>
@@ -476,15 +476,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>2949.398532666572</v>
+        <v>2873.9998806117474</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>1048.7083319916765</v>
+        <v>1334.995115024158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>1.697916325915E12</v>
+        <v>1.697941487416E12</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>10</v>
@@ -496,7 +496,7 @@
         <v>6.95</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>689.1822356526144</v>
+        <v>589.8056652758158</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>670.5135375</v>
@@ -508,15 +508,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>2921.3094485670726</v>
+        <v>2910.682416082356</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>985.2500442904227</v>
+        <v>1393.879014903772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>1.697916326134E12</v>
+        <v>1.697941487464E12</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>10</v>
@@ -528,7 +528,7 @@
         <v>6.95</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>689.1822356526144</v>
+        <v>589.8056652758158</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>670.5135375</v>
@@ -540,15 +540,15 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>2921.3094485670726</v>
+        <v>2910.682416082356</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>985.2500442904227</v>
+        <v>1393.879014903772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>1.697916326429E12</v>
+        <v>1.697941487933E12</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>10</v>
@@ -560,7 +560,7 @@
         <v>6.95</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>758.6822356526144</v>
+        <v>659.3056652758158</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>670.5135375</v>
@@ -572,10 +572,1258 @@
         <v>2102.134347222222</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>2894.592264923608</v>
+        <v>2946.0218334864862</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>921.3187692612337</v>
+        <v>1453.7176948447752</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>1.697941488089E12</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>659.3056652758158</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>2946.0218334864862</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1453.7176948447752</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>1.697941488448E12</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>728.8056652758158</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>2982.3382724307944</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>1513.0801489286623</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>1.697941488713E12</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>798.3056652758158</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>3018.929386678761</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>1572.1993898461612</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>1.697941488961E12</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>798.3056652758158</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>3018.929386678761</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>1572.1993898461612</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>1.697941489336E12</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>867.8056652758158</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>3056.786866788423</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>1630.9480207544914</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>1.697941489477E12</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>867.8056652758158</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>3056.786866788423</v>
+      </c>
+      <c r="J21" t="n" s="0">
+        <v>1630.9480207544914</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>1.697941489958E12</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>937.3056652758157</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>3102.838267943125</v>
+      </c>
+      <c r="J22" t="n" s="0">
+        <v>1683.653410027609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>1.697941489988E12</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>937.3056652758157</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>3102.838267943125</v>
+      </c>
+      <c r="J23" t="n" s="0">
+        <v>1683.653410027609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>1.697941490504E12</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>1006.8056652758158</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>3152.532948326955</v>
+      </c>
+      <c r="J24" t="n" s="0">
+        <v>1732.4589599043659</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>1.697941490583E12</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>1006.8056652758158</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I25" t="n" s="0">
+        <v>3152.532948326955</v>
+      </c>
+      <c r="J25" t="n" s="0">
+        <v>1732.4589599043659</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>1.697941491019E12</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>1076.305665275816</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H26" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I26" t="n" s="0">
+        <v>3199.240445659806</v>
+      </c>
+      <c r="J26" t="n" s="0">
+        <v>1783.47551100896</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>1.697941491206E12</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>1076.305665275816</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H27" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I27" t="n" s="0">
+        <v>3199.240445659806</v>
+      </c>
+      <c r="J27" t="n" s="0">
+        <v>1783.47551100896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>1.697941491532E12</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>1145.8056652758162</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I28" t="n" s="0">
+        <v>3167.2454599358425</v>
+      </c>
+      <c r="J28" t="n" s="0">
+        <v>1839.6074764808498</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>1.697941491828E12</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>1215.305665275816</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I29" t="n" s="0">
+        <v>3124.8810388465126</v>
+      </c>
+      <c r="J29" t="n" s="0">
+        <v>1894.704747338714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>1.69794149205E12</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>1215.305665275816</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G30" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H30" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I30" t="n" s="0">
+        <v>3124.8810388465126</v>
+      </c>
+      <c r="J30" t="n" s="0">
+        <v>1894.704747338714</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>1.697941492454E12</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>1284.805665275816</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>3081.697301973948</v>
+      </c>
+      <c r="J31" t="n" s="0">
+        <v>1949.1489160782344</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>1.697941492563E12</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>1284.805665275816</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H32" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I32" t="n" s="0">
+        <v>3081.697301973948</v>
+      </c>
+      <c r="J32" t="n" s="0">
+        <v>1949.1489160782344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>1.697941493079E12</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>1354.305665275816</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H33" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I33" t="n" s="0">
+        <v>3039.186625726921</v>
+      </c>
+      <c r="J33" t="n" s="0">
+        <v>2004.1387447729235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>1.697941493086E12</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>1354.305665275816</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G34" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H34" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I34" t="n" s="0">
+        <v>3039.186625726921</v>
+      </c>
+      <c r="J34" t="n" s="0">
+        <v>2004.1387447729235</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>1.697941493608E12</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>1423.8056652758162</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G35" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H35" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I35" t="n" s="0">
+        <v>2996.7784246394335</v>
+      </c>
+      <c r="J35" t="n" s="0">
+        <v>2059.1906844623204</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>1.697941493703E12</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>1423.8056652758162</v>
+      </c>
+      <c r="F36" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H36" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I36" t="n" s="0">
+        <v>2996.7784246394335</v>
+      </c>
+      <c r="J36" t="n" s="0">
+        <v>2059.1906844623204</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>1.697941494128E12</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>1493.3056652758162</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H37" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I37" t="n" s="0">
+        <v>2956.0109455178035</v>
+      </c>
+      <c r="J37" t="n" s="0">
+        <v>2115.4339418593513</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>1.69794149433E12</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>1562.8056652758162</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G38" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H38" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I38" t="n" s="0">
+        <v>2914.7088831871733</v>
+      </c>
+      <c r="J38" t="n" s="0">
+        <v>2171.330956361005</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>1.697941494642E12</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>1562.8056652758162</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G39" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H39" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I39" t="n" s="0">
+        <v>2914.7088831871733</v>
+      </c>
+      <c r="J39" t="n" s="0">
+        <v>2171.330956361005</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>1.697941494956E12</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>1632.3056652758164</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G40" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H40" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I40" t="n" s="0">
+        <v>2872.163481622803</v>
+      </c>
+      <c r="J40" t="n" s="0">
+        <v>2226.288213592057</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>1.697941495159E12</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>1632.3056652758164</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G41" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H41" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I41" t="n" s="0">
+        <v>2872.163481622803</v>
+      </c>
+      <c r="J41" t="n" s="0">
+        <v>2226.288213592057</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>1.697941495583E12</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>1701.8056652758164</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G42" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H42" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I42" t="n" s="0">
+        <v>2824.2608773360157</v>
+      </c>
+      <c r="J42" t="n" s="0">
+        <v>2249.405369203443</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>1.697941495678E12</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>1701.8056652758164</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G43" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H43" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I43" t="n" s="0">
+        <v>2824.2608773360157</v>
+      </c>
+      <c r="J43" t="n" s="0">
+        <v>2249.405369203443</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>1.697941496196E12</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>1771.3056652758162</v>
+      </c>
+      <c r="F44" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G44" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I44" t="n" s="0">
+        <v>2769.4931076079706</v>
+      </c>
+      <c r="J44" t="n" s="0">
+        <v>2206.614930652737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>1.697941496211E12</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>1771.3056652758162</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G45" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H45" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I45" t="n" s="0">
+        <v>2769.4931076079706</v>
+      </c>
+      <c r="J45" t="n" s="0">
+        <v>2206.614930652737</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>1.697941496709E12</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>1840.8056652758162</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G46" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H46" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I46" t="n" s="0">
+        <v>2741.782771058288</v>
+      </c>
+      <c r="J46" t="n" s="0">
+        <v>2159.3594192883934</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>1.697941496832E12</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>1840.8056652758162</v>
+      </c>
+      <c r="F47" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G47" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H47" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I47" t="n" s="0">
+        <v>2741.782771058288</v>
+      </c>
+      <c r="J47" t="n" s="0">
+        <v>2159.3594192883934</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>1.697941497222E12</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>1910.3056652758162</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G48" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H48" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I48" t="n" s="0">
+        <v>2786.268820769929</v>
+      </c>
+      <c r="J48" t="n" s="0">
+        <v>2105.9594401090517</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>1.697941497455E12</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>1979.8056652758164</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G49" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H49" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I49" t="n" s="0">
+        <v>2837.5802602198182</v>
+      </c>
+      <c r="J49" t="n" s="0">
+        <v>2107.7454785888112</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>1.697941497735E12</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>1979.8056652758164</v>
+      </c>
+      <c r="F50" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G50" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H50" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I50" t="n" s="0">
+        <v>2837.5802602198182</v>
+      </c>
+      <c r="J50" t="n" s="0">
+        <v>2107.7454785888112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>1.697941498081E12</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>2049.3056652758164</v>
+      </c>
+      <c r="F51" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G51" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H51" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I51" t="n" s="0">
+        <v>2882.669865478948</v>
+      </c>
+      <c r="J51" t="n" s="0">
+        <v>2068.662477736889</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>1.69794149825E12</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D52" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E52" t="n" s="0">
+        <v>2049.3056652758164</v>
+      </c>
+      <c r="F52" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G52" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H52" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I52" t="n" s="0">
+        <v>2882.669865478948</v>
+      </c>
+      <c r="J52" t="n" s="0">
+        <v>2068.662477736889</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>1.697941498705E12</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>2118.8056652758164</v>
+      </c>
+      <c r="F53" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G53" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H53" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I53" t="n" s="0">
+        <v>2923.938221712488</v>
+      </c>
+      <c r="J53" t="n" s="0">
+        <v>2012.7329050362418</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>1.697941498768E12</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D54" t="n" s="0">
+        <v>6.95</v>
+      </c>
+      <c r="E54" t="n" s="0">
+        <v>2118.8056652758164</v>
+      </c>
+      <c r="F54" t="n" s="0">
+        <v>670.5135375</v>
+      </c>
+      <c r="G54" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="n" s="0">
+        <v>2102.134347222222</v>
+      </c>
+      <c r="I54" t="n" s="0">
+        <v>2923.938221712488</v>
+      </c>
+      <c r="J54" t="n" s="0">
+        <v>2012.7329050362418</v>
       </c>
     </row>
   </sheetData>
